--- a/数据整理/stocks/A股/上证主板/601636-旗滨集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601636-旗滨集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5647,4 +5648,5224 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H137"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2054</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7472</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0216</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>106.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7912</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1465</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0351</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9264</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8485</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7426</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7193</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5922</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5922</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5554</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5002</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4277</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3972</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3623</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2881</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>71.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2748</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007959</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.24</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010461</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>民生加银康利混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003912</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004274</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004275</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>浦银安盛安恒回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>003913</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007960</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601636-旗滨集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601636-旗滨集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10868,4 +10869,2488 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4321</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7177</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6262</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5780</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4880</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3330</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3017</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>60.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601636-旗滨集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601636-旗滨集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13353,4 +13354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>136</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601636-旗滨集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601636-旗滨集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13362,7 +13363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13373,17 +13374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13393,14 +13414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.01</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5270</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -13409,14 +13452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>136</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.37</v>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1574</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -13425,14 +13490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.05</v>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>47.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -13441,13 +13528,2467 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9704</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9099</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7815</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7197</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6658</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5218</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4987</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4076</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2056</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006109</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006110</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富荣价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>74.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>136</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>67</v>
       </c>
       <c r="D5" t="n">
+        <v>23.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D6" t="n">
         <v>12.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601636-旗滨集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601636-旗滨集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15887,7 +15888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15898,17 +15899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15918,14 +15939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.19</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -15934,14 +15977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.01</v>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -15950,14 +16015,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>136</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.37</v>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -15966,14 +16053,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.05</v>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2192</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -15982,13 +16091,1571 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1461</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7820</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7441</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6721</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4803</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3448</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>30.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>136</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>67</v>
       </c>
       <c r="D6" t="n">
+        <v>23.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>67</v>
+      </c>
+      <c r="D7" t="n">
         <v>12.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601636-旗滨集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601636-旗滨集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17538,7 +17539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17549,17 +17550,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17569,14 +17590,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.46</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3663</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -17585,14 +17628,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.19</v>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1257</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -17601,14 +17666,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.01</v>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -17617,14 +17704,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>136</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.37</v>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5478</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -17633,14 +17742,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.05</v>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3598</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -17649,13 +17780,898 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1205</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8445</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6788</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5891</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5205</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4987</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4314</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3696</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>57.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>136</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>67</v>
       </c>
       <c r="D7" t="n">
+        <v>23.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D8" t="n">
         <v>12.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601636-旗滨集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601636-旗滨集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>20.35</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>18.46</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>16.19</v>
+        <v>18.46</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>12.01</v>
+        <v>16.19</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>36.37</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D7" t="n">
-        <v>23.05</v>
+        <v>36.37</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>67</v>
       </c>
       <c r="D8" t="n">
+        <v>23.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>67</v>
+      </c>
+      <c r="D9" t="n">
         <v>12.3</v>
       </c>
     </row>
@@ -600,6 +617,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4212</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时主题行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4601</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4933</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3944</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3922</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3816</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>50.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013934</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长江红利回报混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005109</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015276</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>59.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012675</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华融融泽6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>57.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013935</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长江红利回报混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015277</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>59.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012676</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华融融泽6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>57.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1598,7 +2887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3248,7 +4537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5772,7 +7061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8256,7 +9545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13469,2608 +14758,6 @@
       </c>
       <c r="H137" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>900010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中信卓越成长两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>140.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.3302</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>510880</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证红利ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>138.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.3080</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>900090</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信卓越成长两年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>103.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.1998</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>163409</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴全绿色投资混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>31.99</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.6059</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>970016</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信建投价值增长混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>39.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>64.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8268</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006252</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>永赢消费主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>24.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.90</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8214</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>166011</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7558</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001736</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>圆信永丰优加生活股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>37.98</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.7026</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>100032</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>46.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.62</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6830</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010898</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银河产业动力混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>40.68</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.6473</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004856</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10.22</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5314</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009782</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>25.22</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>58.86</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.5271</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002345</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华夏高端制造灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.23</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.5116</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>150968</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银河研究精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10.79</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>85.25</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.4758</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001306</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中欧永裕混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>84.10</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3610</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002095</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>65.73</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3103</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006253</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>永赢消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>85.90</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2754</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>900100</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中信卓越成长两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2436</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004857</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2194</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009783</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>58.86</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.2113</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009114</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏扬景泓回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>79.99</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1793</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>970017</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中信建投价值增长混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>64.74</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1789</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004959</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>圆信永丰优悦生活混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>79.70</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1554</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>210003</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>金鹰行业优势混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>88.62</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1498</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>920008</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中金进取回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>40.18</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1283</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>000242</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>景顺长城策略精选</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>88.16</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1257</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008306</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>方正富邦天璇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>88.61</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1255</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009932</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>永赢稳健增长一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>14.43</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>22.26</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1154</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>000066</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>诺安鸿鑫混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.32</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>9.65</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0975</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>519644</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>银河智联主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>89.00</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0852</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003502</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>金鹰鑫瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>27.93</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0831</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002732</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>长盛沪港深优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>65.79</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0802</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>005732</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>富国臻选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>75.06</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0801</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009055</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>圆信永丰大湾区主题混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0779</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>002085</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>长盛互联网+主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009907</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0646</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001888</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -E</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>002096</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>65.73</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0576</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>003503</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>金鹰鑫瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>27.93</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0556</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>519198</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>万家颐和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0552</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>006199</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>长盛同锦研究精选混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0547</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>004233</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0504</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>010465</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>鹏扬景创混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>40.73</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0480</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>001892</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>长盛新兴成长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0417</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>009115</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>鹏扬景泓回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>79.99</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>512100</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>南方中证1000ETF</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0281</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>009056</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>圆信永丰大湾区主题混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>004352</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>北信瑞丰研究精选股票</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>88.23</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>009908</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>74.89</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0217</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>920928</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>中金进取回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>40.18</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>710301</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>20.28</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>010466</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>鹏扬景创混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>40.73</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>001307</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>中欧永裕混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>84.10</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>010076</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>82.93</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>97.96</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>710302</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>20.28</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>010077</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>82.93</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>008890</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>41.82</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>006143</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>006486</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>广发中证1000指数A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>008307</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>方正富邦天璇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>88.61</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>95.43</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>006487</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>广发中证1000指数C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>162413</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>华宝中证1000指数</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>006144</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16135,6 +14822,2608 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>138.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>103.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6059</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8268</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7558</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7026</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6830</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6473</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5314</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5271</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5116</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>40.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>40.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>40.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>40.73</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>41.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>510880</t>
         </is>
       </c>
